--- a/public/files/templates/Standard Activity.xlsx
+++ b/public/files/templates/Standard Activity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar.garana\Desktop\cost-control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cost-control\public\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Standard Activity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Division</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Activity Name</t>
-  </si>
-  <si>
-    <t>Breakdown Template Name</t>
   </si>
   <si>
     <t>Work Pakage Name</t>
@@ -103,10 +100,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -160,16 +154,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StandardActivity" displayName="StandardActivity" ref="A1:G136" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G136"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Division" dataDxfId="6"/>
-    <tableColumn id="2" name="Sub Division 1" dataDxfId="5"/>
-    <tableColumn id="3" name="Sub Division 2" dataDxfId="4"/>
-    <tableColumn id="7" name="Work Pakage Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Activity Name" dataDxfId="2"/>
-    <tableColumn id="5" name="Activity Code " dataDxfId="1"/>
-    <tableColumn id="6" name="Breakdown Template Name" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StandardActivity" displayName="StandardActivity" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F136"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Division" dataDxfId="5"/>
+    <tableColumn id="2" name="Sub Division 1" dataDxfId="4"/>
+    <tableColumn id="3" name="Sub Division 2" dataDxfId="3"/>
+    <tableColumn id="7" name="Work Pakage Name" dataDxfId="2"/>
+    <tableColumn id="4" name="Activity Name" dataDxfId="1"/>
+    <tableColumn id="5" name="Activity Code " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -438,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -452,11 +445,10 @@
     <col min="4" max="4" width="34.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.69921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -467,19 +459,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
